--- a/DofusItemPriceExcel/Assets/Parchos.xlsx
+++ b/DofusItemPriceExcel/Assets/Parchos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Source\Repos\Zladyy\DofusParchoPriceExcel\DofusItemPriceExcel\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Zladyy\DofusItemPriceExcel\DofusItemPriceExcel\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA128B-FAE5-421F-9035-31FA0F501ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA9ED0E-4593-44E4-B7F2-B6883795235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B40B6C7-8686-4DCB-B8C4-4FF42805718B}"/>
   </bookViews>
@@ -685,10 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B5FC9A-7835-4271-86CE-CFEF18F7BAE5}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,118 +704,125 @@
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
+      <c r="B3" s="11">
+        <v>45381.041666666664</v>
+      </c>
+      <c r="C3" s="2">
+        <v>48956</v>
+      </c>
+      <c r="D3" s="12">
+        <v>523000</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45381.041666666664</v>
+      </c>
+      <c r="G3" s="2">
+        <v>48956</v>
+      </c>
+      <c r="H3" s="12">
+        <v>523000</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
-        <v>45381.041666666664</v>
-      </c>
-      <c r="C4" s="2">
-        <v>48956</v>
-      </c>
-      <c r="D4" s="12">
-        <v>523000</v>
-      </c>
-      <c r="F4" s="11">
-        <v>45381.041666666664</v>
-      </c>
-      <c r="G4" s="2">
-        <v>48956</v>
-      </c>
-      <c r="H4" s="12">
-        <v>523000</v>
+      <c r="B4" s="6">
+        <v>45386.774305555555</v>
+      </c>
+      <c r="C4" s="1">
+        <v>49752</v>
+      </c>
+      <c r="D4" s="7">
+        <v>598999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45386.774305555555</v>
+      </c>
+      <c r="G4" s="1">
+        <v>49752</v>
+      </c>
+      <c r="H4" s="7">
+        <v>598999</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>45386.774305555555</v>
+        <v>45387.840277777781</v>
       </c>
       <c r="C5" s="1">
-        <v>49752</v>
+        <v>68523</v>
       </c>
       <c r="D5" s="7">
-        <v>598999</v>
+        <v>784230</v>
       </c>
       <c r="F5" s="6">
-        <v>45386.774305555555</v>
+        <v>45387.840277777781</v>
       </c>
       <c r="G5" s="1">
-        <v>49752</v>
+        <v>68523</v>
       </c>
       <c r="H5" s="7">
-        <v>598999</v>
+        <v>784230</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>45387.840277777781</v>
+        <v>45389.96875</v>
       </c>
       <c r="C6" s="1">
-        <v>68523</v>
+        <v>64251</v>
       </c>
       <c r="D6" s="7">
-        <v>784230</v>
+        <v>796300</v>
       </c>
       <c r="F6" s="6">
-        <v>45387.840277777781</v>
+        <v>45389.96875</v>
       </c>
       <c r="G6" s="1">
-        <v>68523</v>
+        <v>64251</v>
       </c>
       <c r="H6" s="7">
-        <v>784230</v>
+        <v>796300</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>45389.96875</v>
-      </c>
-      <c r="C7" s="1">
-        <v>64251</v>
-      </c>
-      <c r="D7" s="7">
-        <v>796300</v>
-      </c>
-      <c r="F7" s="6">
-        <v>45389.96875</v>
-      </c>
-      <c r="G7" s="1">
-        <v>64251</v>
-      </c>
-      <c r="H7" s="7">
-        <v>796300</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
@@ -825,12 +833,12 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
@@ -880,26 +888,18 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DofusItemPriceExcel/Assets/Parchos.xlsx
+++ b/DofusItemPriceExcel/Assets/Parchos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Zladyy\DofusItemPriceExcel\DofusItemPriceExcel\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA9ED0E-4593-44E4-B7F2-B6883795235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D43F87-921A-4E38-AE78-64F31C1196C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B40B6C7-8686-4DCB-B8C4-4FF42805718B}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,31 +798,43 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>45389.96875</v>
+        <v>45389.513888888891</v>
       </c>
       <c r="C6" s="1">
-        <v>64251</v>
+        <v>65640</v>
       </c>
       <c r="D6" s="7">
         <v>796300</v>
       </c>
       <c r="F6" s="6">
-        <v>45389.96875</v>
+        <v>45389.513888888891</v>
       </c>
       <c r="G6" s="1">
-        <v>64251</v>
+        <v>65640</v>
       </c>
       <c r="H6" s="7">
         <v>796300</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="6">
+        <v>45389.96875</v>
+      </c>
+      <c r="C7" s="1">
+        <v>64251</v>
+      </c>
+      <c r="D7" s="7">
+        <v>796300</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45389.96875</v>
+      </c>
+      <c r="G7" s="1">
+        <v>64251</v>
+      </c>
+      <c r="H7" s="7">
+        <v>796300</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
